--- a/Code/Results/Cases/Case_5_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_114/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.041517944854483</v>
+        <v>1.085301709118959</v>
       </c>
       <c r="D2">
-        <v>1.057763147677113</v>
+        <v>1.085124543965622</v>
       </c>
       <c r="E2">
-        <v>1.050729880017032</v>
+        <v>1.087265549381269</v>
       </c>
       <c r="F2">
-        <v>1.063251724252616</v>
+        <v>1.096873305803911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067936633545386</v>
+        <v>1.059245209726623</v>
       </c>
       <c r="J2">
-        <v>1.062524008945996</v>
+        <v>1.090157246685576</v>
       </c>
       <c r="K2">
-        <v>1.068472396257141</v>
+        <v>1.087785785571798</v>
       </c>
       <c r="L2">
-        <v>1.061524970168025</v>
+        <v>1.089921258391642</v>
       </c>
       <c r="M2">
-        <v>1.073894962898193</v>
+        <v>1.099504473980933</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.050433347015363</v>
+        <v>1.08701399729553</v>
       </c>
       <c r="D3">
-        <v>1.064909818311038</v>
+        <v>1.086493387049638</v>
       </c>
       <c r="E3">
-        <v>1.058500064689993</v>
+        <v>1.088776999058817</v>
       </c>
       <c r="F3">
-        <v>1.071000811139552</v>
+        <v>1.098384363779024</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071283905984399</v>
+        <v>1.059759922991254</v>
       </c>
       <c r="J3">
-        <v>1.069637581102999</v>
+        <v>1.091529202272312</v>
       </c>
       <c r="K3">
-        <v>1.074774439185521</v>
+        <v>1.088972439691653</v>
       </c>
       <c r="L3">
-        <v>1.068435389138348</v>
+        <v>1.091250581336528</v>
       </c>
       <c r="M3">
-        <v>1.080799206333066</v>
+        <v>1.100835199105746</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.05600748006157</v>
+        <v>1.088119578485727</v>
       </c>
       <c r="D4">
-        <v>1.069379882632144</v>
+        <v>1.087376886973792</v>
       </c>
       <c r="E4">
-        <v>1.063359564402293</v>
+        <v>1.089752568116499</v>
       </c>
       <c r="F4">
-        <v>1.075849642369863</v>
+        <v>1.099359950300614</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.073361599894713</v>
+        <v>1.060090394316215</v>
       </c>
       <c r="J4">
-        <v>1.074079456246706</v>
+        <v>1.092414179809803</v>
       </c>
       <c r="K4">
-        <v>1.078707301957801</v>
+        <v>1.089737510452409</v>
       </c>
       <c r="L4">
-        <v>1.072749016122986</v>
+        <v>1.092107789751352</v>
       </c>
       <c r="M4">
-        <v>1.085111340347634</v>
+        <v>1.101693581356675</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.05830722439771</v>
+        <v>1.088583806880934</v>
       </c>
       <c r="D5">
-        <v>1.071224426394595</v>
+        <v>1.087747785041195</v>
       </c>
       <c r="E5">
-        <v>1.065364710679207</v>
+        <v>1.090162124136735</v>
       </c>
       <c r="F5">
-        <v>1.077850971341318</v>
+        <v>1.099769577973882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.074215113918743</v>
+        <v>1.060228710566108</v>
       </c>
       <c r="J5">
-        <v>1.075910624786053</v>
+        <v>1.092785571623838</v>
       </c>
       <c r="K5">
-        <v>1.080328056851221</v>
+        <v>1.090058490920428</v>
       </c>
       <c r="L5">
-        <v>1.074526971330066</v>
+        <v>1.092467463566308</v>
       </c>
       <c r="M5">
-        <v>1.086889230881702</v>
+        <v>1.102053811967879</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.05869088532172</v>
+        <v>1.088661720521898</v>
       </c>
       <c r="D6">
-        <v>1.071532162230924</v>
+        <v>1.087810029923799</v>
       </c>
       <c r="E6">
-        <v>1.065699236201194</v>
+        <v>1.090230857096993</v>
       </c>
       <c r="F6">
-        <v>1.078184893815229</v>
+        <v>1.099838326720331</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074357284817986</v>
+        <v>1.060251898600485</v>
       </c>
       <c r="J6">
-        <v>1.076216028079631</v>
+        <v>1.0928478919635</v>
       </c>
       <c r="K6">
-        <v>1.080598332801516</v>
+        <v>1.090112346781096</v>
       </c>
       <c r="L6">
-        <v>1.074823479281196</v>
+        <v>1.09252781382869</v>
       </c>
       <c r="M6">
-        <v>1.087185760000709</v>
+        <v>1.102114259417345</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.056038377015818</v>
+        <v>1.088125783703029</v>
       </c>
       <c r="D7">
-        <v>1.069404662911307</v>
+        <v>1.087381844983109</v>
       </c>
       <c r="E7">
-        <v>1.063386502604421</v>
+        <v>1.08975804286134</v>
       </c>
       <c r="F7">
-        <v>1.075876526999052</v>
+        <v>1.099365425750921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07337308151144</v>
+        <v>1.060092244910822</v>
       </c>
       <c r="J7">
-        <v>1.074104063675888</v>
+        <v>1.092419144916046</v>
       </c>
       <c r="K7">
-        <v>1.078729084130497</v>
+        <v>1.089741801971794</v>
       </c>
       <c r="L7">
-        <v>1.072772909834866</v>
+        <v>1.092112598453544</v>
       </c>
       <c r="M7">
-        <v>1.085135231028426</v>
+        <v>1.101698397250679</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.044573168103777</v>
+        <v>1.085880886192941</v>
       </c>
       <c r="D8">
-        <v>1.060211788726097</v>
+        <v>1.08558761889134</v>
       </c>
       <c r="E8">
-        <v>1.053392295933604</v>
+        <v>1.087776862679384</v>
       </c>
       <c r="F8">
-        <v>1.065906362814687</v>
+        <v>1.097384430298241</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069086867559835</v>
+        <v>1.059419696870241</v>
       </c>
       <c r="J8">
-        <v>1.064962928326241</v>
+        <v>1.090621485142614</v>
       </c>
       <c r="K8">
-        <v>1.070633544215869</v>
+        <v>1.088187400524059</v>
       </c>
       <c r="L8">
-        <v>1.063894527669627</v>
+        <v>1.090371126791931</v>
       </c>
       <c r="M8">
-        <v>1.076261892042245</v>
+        <v>1.099954760770666</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022725948409857</v>
+        <v>1.081906259846066</v>
       </c>
       <c r="D9">
-        <v>1.042715535293563</v>
+        <v>1.082408441323232</v>
       </c>
       <c r="E9">
-        <v>1.034364370241032</v>
+        <v>1.08426659148753</v>
       </c>
       <c r="F9">
-        <v>1.046946036594911</v>
+        <v>1.093876584021221</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060798878358907</v>
+        <v>1.058214604362876</v>
       </c>
       <c r="J9">
-        <v>1.047500951660946</v>
+        <v>1.087432105509631</v>
       </c>
       <c r="K9">
-        <v>1.055151615692881</v>
+        <v>1.085426707197246</v>
       </c>
       <c r="L9">
-        <v>1.04692347086713</v>
+        <v>1.087279359456254</v>
       </c>
       <c r="M9">
-        <v>1.059320746920039</v>
+        <v>1.096861242041419</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006807984121514</v>
+        <v>1.079243043975717</v>
       </c>
       <c r="D10">
-        <v>1.029992395683809</v>
+        <v>1.080276619470768</v>
       </c>
       <c r="E10">
-        <v>1.020519793778487</v>
+        <v>1.081912826054108</v>
       </c>
       <c r="F10">
-        <v>1.033167401724904</v>
+        <v>1.091525880624595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054682951775284</v>
+        <v>1.057397499911419</v>
       </c>
       <c r="J10">
-        <v>1.034754071280402</v>
+        <v>1.085290630642364</v>
       </c>
       <c r="K10">
-        <v>1.043840450861545</v>
+        <v>1.083571140111883</v>
       </c>
       <c r="L10">
-        <v>1.034528183905384</v>
+        <v>1.085202023534982</v>
       </c>
       <c r="M10">
-        <v>1.046962563247353</v>
+        <v>1.094784156202508</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9995264484429016</v>
+        <v>1.078086468508088</v>
       </c>
       <c r="D11">
-        <v>1.0241809481217</v>
+        <v>1.079350450965541</v>
       </c>
       <c r="E11">
-        <v>1.014193494221389</v>
+        <v>1.080890243180368</v>
       </c>
       <c r="F11">
-        <v>1.026875692456616</v>
+        <v>1.090504973939937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051868290919748</v>
+        <v>1.057040370504787</v>
       </c>
       <c r="J11">
-        <v>1.028918940992013</v>
+        <v>1.08435959254955</v>
       </c>
       <c r="K11">
-        <v>1.038660814025782</v>
+        <v>1.082763951871856</v>
       </c>
       <c r="L11">
-        <v>1.028852615670669</v>
+        <v>1.084298537337753</v>
       </c>
       <c r="M11">
-        <v>1.041307967196371</v>
+        <v>1.093881121233626</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9967563406260084</v>
+        <v>1.077656340680966</v>
       </c>
       <c r="D12">
-        <v>1.021971680071968</v>
+        <v>1.079005957199657</v>
       </c>
       <c r="E12">
-        <v>1.011788028451944</v>
+        <v>1.080509888140073</v>
       </c>
       <c r="F12">
-        <v>1.024484094847051</v>
+        <v>1.090125294777881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050795100097814</v>
+        <v>1.056907212825952</v>
       </c>
       <c r="J12">
-        <v>1.026698615187776</v>
+        <v>1.084013185225237</v>
       </c>
       <c r="K12">
-        <v>1.036689705676999</v>
+        <v>1.082463557190281</v>
       </c>
       <c r="L12">
-        <v>1.026692820262586</v>
+        <v>1.083962330947784</v>
       </c>
       <c r="M12">
-        <v>1.039156785284766</v>
+        <v>1.093545134544137</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9973536238719892</v>
+        <v>1.077748628533043</v>
       </c>
       <c r="D13">
-        <v>1.022447960626581</v>
+        <v>1.079079873896297</v>
       </c>
       <c r="E13">
-        <v>1.012306628570568</v>
+        <v>1.08059149943573</v>
       </c>
       <c r="F13">
-        <v>1.024999672017526</v>
+        <v>1.090206758674655</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051026604947953</v>
+        <v>1.056935798491562</v>
       </c>
       <c r="J13">
-        <v>1.027177374467565</v>
+        <v>1.08408751714652</v>
       </c>
       <c r="K13">
-        <v>1.03711473551119</v>
+        <v>1.082528018793968</v>
       </c>
       <c r="L13">
-        <v>1.027158535525557</v>
+        <v>1.084034476228866</v>
       </c>
       <c r="M13">
-        <v>1.039620614104908</v>
+        <v>1.093617230332157</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9992988497032834</v>
+        <v>1.078050924791968</v>
       </c>
       <c r="D14">
-        <v>1.023999395704787</v>
+        <v>1.079321984730382</v>
       </c>
       <c r="E14">
-        <v>1.013995828795318</v>
+        <v>1.080858813645339</v>
       </c>
       <c r="F14">
-        <v>1.026679151848972</v>
+        <v>1.090473599182888</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051780162926106</v>
+        <v>1.057029373961024</v>
       </c>
       <c r="J14">
-        <v>1.028736522258497</v>
+        <v>1.084330970283131</v>
       </c>
       <c r="K14">
-        <v>1.038498874425064</v>
+        <v>1.082739132824818</v>
       </c>
       <c r="L14">
-        <v>1.028675173609329</v>
+        <v>1.08427075895776</v>
       </c>
       <c r="M14">
-        <v>1.04113121977645</v>
+        <v>1.093853359948128</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000488469386607</v>
+        <v>1.0782371095635</v>
       </c>
       <c r="D15">
-        <v>1.024948404774602</v>
+        <v>1.079471094111213</v>
       </c>
       <c r="E15">
-        <v>1.015029043969779</v>
+        <v>1.081023445149018</v>
       </c>
       <c r="F15">
-        <v>1.027706516817183</v>
+        <v>1.090637945901019</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052240695938075</v>
+        <v>1.057086961958141</v>
       </c>
       <c r="J15">
-        <v>1.029689975593712</v>
+        <v>1.084480892782466</v>
       </c>
       <c r="K15">
-        <v>1.039345280939636</v>
+        <v>1.08286913141919</v>
       </c>
       <c r="L15">
-        <v>1.029602607894831</v>
+        <v>1.084416259153383</v>
       </c>
       <c r="M15">
-        <v>1.042055049256271</v>
+        <v>1.093998772725929</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007282470915838</v>
+        <v>1.079319729427141</v>
       </c>
       <c r="D16">
-        <v>1.030371287412538</v>
+        <v>1.080338020448661</v>
       </c>
       <c r="E16">
-        <v>1.020932192138187</v>
+        <v>1.081980619013867</v>
       </c>
       <c r="F16">
-        <v>1.033577640816486</v>
+        <v>1.091593569776106</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054866024934143</v>
+        <v>1.057421131047643</v>
       </c>
       <c r="J16">
-        <v>1.035134232295836</v>
+        <v>1.085352340168404</v>
       </c>
       <c r="K16">
-        <v>1.04417787504485</v>
+        <v>1.083624631335349</v>
       </c>
       <c r="L16">
-        <v>1.034897922716987</v>
+        <v>1.085261899890331</v>
       </c>
       <c r="M16">
-        <v>1.047331020612165</v>
+        <v>1.094844009885398</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011435457793068</v>
+        <v>1.079997910940931</v>
       </c>
       <c r="D17">
-        <v>1.033688568510416</v>
+        <v>1.080880988954003</v>
       </c>
       <c r="E17">
-        <v>1.024542528404451</v>
+        <v>1.082580112711142</v>
       </c>
       <c r="F17">
-        <v>1.037169579087168</v>
+        <v>1.09219218544192</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056466498301754</v>
+        <v>1.057629854389641</v>
       </c>
       <c r="J17">
-        <v>1.038461171784683</v>
+        <v>1.08589795913022</v>
       </c>
       <c r="K17">
-        <v>1.047130619199492</v>
+        <v>1.084097534134986</v>
       </c>
       <c r="L17">
-        <v>1.038133500223232</v>
+        <v>1.085791272000037</v>
       </c>
       <c r="M17">
-        <v>1.050555834490971</v>
+        <v>1.095373221059258</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013820825271073</v>
+        <v>1.080393157160328</v>
       </c>
       <c r="D18">
-        <v>1.035594715380947</v>
+        <v>1.081197397330002</v>
       </c>
       <c r="E18">
-        <v>1.026616828593878</v>
+        <v>1.082929461365663</v>
       </c>
       <c r="F18">
-        <v>1.039233721953533</v>
+        <v>1.092541055712002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057384173591325</v>
+        <v>1.057751279437117</v>
       </c>
       <c r="J18">
-        <v>1.04037167798377</v>
+        <v>1.086215846997694</v>
       </c>
       <c r="K18">
-        <v>1.048826076852453</v>
+        <v>1.084373012587569</v>
       </c>
       <c r="L18">
-        <v>1.03999141039263</v>
+        <v>1.086099662053731</v>
       </c>
       <c r="M18">
-        <v>1.052407933239544</v>
+        <v>1.095681550292049</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014628091781605</v>
+        <v>1.080527871151404</v>
       </c>
       <c r="D19">
-        <v>1.036239927954623</v>
+        <v>1.08130523455359</v>
       </c>
       <c r="E19">
-        <v>1.027318921008418</v>
+        <v>1.083048525357452</v>
       </c>
       <c r="F19">
-        <v>1.039932445219236</v>
+        <v>1.092659962293468</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057694462952842</v>
+        <v>1.057792628169923</v>
       </c>
       <c r="J19">
-        <v>1.041018167623902</v>
+        <v>1.086324177448964</v>
       </c>
       <c r="K19">
-        <v>1.049399767332797</v>
+        <v>1.084466883266056</v>
       </c>
       <c r="L19">
-        <v>1.040620079378061</v>
+        <v>1.086204750380478</v>
       </c>
       <c r="M19">
-        <v>1.053034697473667</v>
+        <v>1.095786623469056</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010993755413769</v>
+        <v>1.079925182271966</v>
       </c>
       <c r="D20">
-        <v>1.033335666216273</v>
+        <v>1.080822764268153</v>
       </c>
       <c r="E20">
-        <v>1.024158475459583</v>
+        <v>1.082515826514642</v>
       </c>
       <c r="F20">
-        <v>1.03678743995817</v>
+        <v>1.092127989953696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056296440569572</v>
+        <v>1.0576074934627</v>
       </c>
       <c r="J20">
-        <v>1.038107366679488</v>
+        <v>1.085839456959564</v>
       </c>
       <c r="K20">
-        <v>1.046816624954396</v>
+        <v>1.084046833222033</v>
       </c>
       <c r="L20">
-        <v>1.037789424545018</v>
+        <v>1.08573451516535</v>
       </c>
       <c r="M20">
-        <v>1.050212864785457</v>
+        <v>1.095316478068796</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.998727897224381</v>
+        <v>1.077961920674695</v>
       </c>
       <c r="D21">
-        <v>1.023543980995536</v>
+        <v>1.079250702289126</v>
       </c>
       <c r="E21">
-        <v>1.013499987573206</v>
+        <v>1.080780110797525</v>
       </c>
       <c r="F21">
-        <v>1.026186143881769</v>
+        <v>1.090395034352761</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05155904748494</v>
+        <v>1.057001832272235</v>
       </c>
       <c r="J21">
-        <v>1.02827890098291</v>
+        <v>1.084259295468838</v>
       </c>
       <c r="K21">
-        <v>1.038092624656509</v>
+        <v>1.082676980800104</v>
       </c>
       <c r="L21">
-        <v>1.028230034092831</v>
+        <v>1.084201196561876</v>
       </c>
       <c r="M21">
-        <v>1.040687833152466</v>
+        <v>1.093783841197532</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9906329657231054</v>
+        <v>1.076724499485266</v>
       </c>
       <c r="D22">
-        <v>1.017091310617998</v>
+        <v>1.078259538968714</v>
       </c>
       <c r="E22">
-        <v>1.006473279894419</v>
+        <v>1.079685769243856</v>
       </c>
       <c r="F22">
-        <v>1.019201366861806</v>
+        <v>1.089302736697671</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048418505194177</v>
+        <v>1.056618110794992</v>
       </c>
       <c r="J22">
-        <v>1.021789864790663</v>
+        <v>1.083262432884125</v>
       </c>
       <c r="K22">
-        <v>1.032331622373998</v>
+        <v>1.081812402541452</v>
       </c>
       <c r="L22">
-        <v>1.021917581401586</v>
+        <v>1.083233594694755</v>
       </c>
       <c r="M22">
-        <v>1.03440180235739</v>
+        <v>1.092816969647702</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.994963197841494</v>
+        <v>1.077380773335791</v>
       </c>
       <c r="D23">
-        <v>1.020542061980171</v>
+        <v>1.078785237507553</v>
       </c>
       <c r="E23">
-        <v>1.010231306784879</v>
+        <v>1.08026619194792</v>
       </c>
       <c r="F23">
-        <v>1.022936556201241</v>
+        <v>1.089882046436311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050099742667019</v>
+        <v>1.056821807263201</v>
       </c>
       <c r="J23">
-        <v>1.025261244976035</v>
+        <v>1.083791210611446</v>
       </c>
       <c r="K23">
-        <v>1.03541362117029</v>
+        <v>1.082271048059054</v>
       </c>
       <c r="L23">
-        <v>1.025294586908771</v>
+        <v>1.083746878860736</v>
       </c>
       <c r="M23">
-        <v>1.037764311286986</v>
+        <v>1.093329837871186</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011193455531642</v>
+        <v>1.079958046232838</v>
       </c>
       <c r="D24">
-        <v>1.033495216086431</v>
+        <v>1.080849074411967</v>
       </c>
       <c r="E24">
-        <v>1.024332109520002</v>
+        <v>1.082544875686569</v>
       </c>
       <c r="F24">
-        <v>1.03696020748236</v>
+        <v>1.092156998034188</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056373331132783</v>
+        <v>1.057617598391061</v>
       </c>
       <c r="J24">
-        <v>1.038267328410651</v>
+        <v>1.085865892692159</v>
       </c>
       <c r="K24">
-        <v>1.046958587989901</v>
+        <v>1.084069743887604</v>
       </c>
       <c r="L24">
-        <v>1.037944987834508</v>
+        <v>1.085760162321553</v>
       </c>
       <c r="M24">
-        <v>1.050367926897293</v>
+        <v>1.095342118867299</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.028592192885475</v>
+        <v>1.082936109876331</v>
       </c>
       <c r="D25">
-        <v>1.047410120796231</v>
+        <v>1.08323247168638</v>
       </c>
       <c r="E25">
-        <v>1.039470982126706</v>
+        <v>1.085176424139053</v>
       </c>
       <c r="F25">
-        <v>1.052031815036748</v>
+        <v>1.094785537499505</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063037744892212</v>
+        <v>1.058528545480589</v>
       </c>
       <c r="J25">
-        <v>1.052194195828463</v>
+        <v>1.088259271521976</v>
       </c>
       <c r="K25">
-        <v>1.059314480730656</v>
+        <v>1.086143033851411</v>
       </c>
       <c r="L25">
-        <v>1.051485973413915</v>
+        <v>1.088081455635591</v>
       </c>
       <c r="M25">
-        <v>1.063872740228348</v>
+        <v>1.097663543357359</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_114/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.085301709118959</v>
+        <v>1.041517944854483</v>
       </c>
       <c r="D2">
-        <v>1.085124543965622</v>
+        <v>1.057763147677113</v>
       </c>
       <c r="E2">
-        <v>1.087265549381269</v>
+        <v>1.050729880017032</v>
       </c>
       <c r="F2">
-        <v>1.096873305803911</v>
+        <v>1.063251724252616</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059245209726623</v>
+        <v>1.067936633545386</v>
       </c>
       <c r="J2">
-        <v>1.090157246685576</v>
+        <v>1.062524008945997</v>
       </c>
       <c r="K2">
-        <v>1.087785785571798</v>
+        <v>1.068472396257141</v>
       </c>
       <c r="L2">
-        <v>1.089921258391642</v>
+        <v>1.061524970168026</v>
       </c>
       <c r="M2">
-        <v>1.099504473980933</v>
+        <v>1.073894962898194</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.08701399729553</v>
+        <v>1.050433347015362</v>
       </c>
       <c r="D3">
-        <v>1.086493387049638</v>
+        <v>1.064909818311037</v>
       </c>
       <c r="E3">
-        <v>1.088776999058817</v>
+        <v>1.058500064689992</v>
       </c>
       <c r="F3">
-        <v>1.098384363779024</v>
+        <v>1.071000811139551</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059759922991254</v>
+        <v>1.071283905984399</v>
       </c>
       <c r="J3">
-        <v>1.091529202272312</v>
+        <v>1.069637581102998</v>
       </c>
       <c r="K3">
-        <v>1.088972439691653</v>
+        <v>1.07477443918552</v>
       </c>
       <c r="L3">
-        <v>1.091250581336528</v>
+        <v>1.068435389138347</v>
       </c>
       <c r="M3">
-        <v>1.100835199105746</v>
+        <v>1.080799206333066</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.088119578485727</v>
+        <v>1.056007480061571</v>
       </c>
       <c r="D4">
-        <v>1.087376886973792</v>
+        <v>1.069379882632145</v>
       </c>
       <c r="E4">
-        <v>1.089752568116499</v>
+        <v>1.063359564402294</v>
       </c>
       <c r="F4">
-        <v>1.099359950300614</v>
+        <v>1.075849642369864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060090394316215</v>
+        <v>1.073361599894713</v>
       </c>
       <c r="J4">
-        <v>1.092414179809803</v>
+        <v>1.074079456246707</v>
       </c>
       <c r="K4">
-        <v>1.089737510452409</v>
+        <v>1.078707301957802</v>
       </c>
       <c r="L4">
-        <v>1.092107789751352</v>
+        <v>1.072749016122986</v>
       </c>
       <c r="M4">
-        <v>1.101693581356675</v>
+        <v>1.085111340347635</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.088583806880934</v>
+        <v>1.058307224397714</v>
       </c>
       <c r="D5">
-        <v>1.087747785041195</v>
+        <v>1.071224426394599</v>
       </c>
       <c r="E5">
-        <v>1.090162124136735</v>
+        <v>1.06536471067921</v>
       </c>
       <c r="F5">
-        <v>1.099769577973882</v>
+        <v>1.077850971341322</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060228710566108</v>
+        <v>1.074215113918745</v>
       </c>
       <c r="J5">
-        <v>1.092785571623838</v>
+        <v>1.075910624786057</v>
       </c>
       <c r="K5">
-        <v>1.090058490920428</v>
+        <v>1.080328056851225</v>
       </c>
       <c r="L5">
-        <v>1.092467463566308</v>
+        <v>1.074526971330069</v>
       </c>
       <c r="M5">
-        <v>1.102053811967879</v>
+        <v>1.086889230881706</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.088661720521898</v>
+        <v>1.05869088532172</v>
       </c>
       <c r="D6">
-        <v>1.087810029923799</v>
+        <v>1.071532162230923</v>
       </c>
       <c r="E6">
-        <v>1.090230857096993</v>
+        <v>1.065699236201193</v>
       </c>
       <c r="F6">
-        <v>1.099838326720331</v>
+        <v>1.078184893815229</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060251898600485</v>
+        <v>1.074357284817986</v>
       </c>
       <c r="J6">
-        <v>1.0928478919635</v>
+        <v>1.076216028079631</v>
       </c>
       <c r="K6">
-        <v>1.090112346781096</v>
+        <v>1.080598332801516</v>
       </c>
       <c r="L6">
-        <v>1.09252781382869</v>
+        <v>1.074823479281195</v>
       </c>
       <c r="M6">
-        <v>1.102114259417345</v>
+        <v>1.087185760000709</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.088125783703029</v>
+        <v>1.056038377015817</v>
       </c>
       <c r="D7">
-        <v>1.087381844983109</v>
+        <v>1.069404662911306</v>
       </c>
       <c r="E7">
-        <v>1.08975804286134</v>
+        <v>1.06338650260442</v>
       </c>
       <c r="F7">
-        <v>1.099365425750921</v>
+        <v>1.075876526999052</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060092244910822</v>
+        <v>1.073373081511439</v>
       </c>
       <c r="J7">
-        <v>1.092419144916046</v>
+        <v>1.074104063675888</v>
       </c>
       <c r="K7">
-        <v>1.089741801971794</v>
+        <v>1.078729084130496</v>
       </c>
       <c r="L7">
-        <v>1.092112598453544</v>
+        <v>1.072772909834866</v>
       </c>
       <c r="M7">
-        <v>1.101698397250679</v>
+        <v>1.085135231028426</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.085880886192941</v>
+        <v>1.044573168103779</v>
       </c>
       <c r="D8">
-        <v>1.08558761889134</v>
+        <v>1.060211788726098</v>
       </c>
       <c r="E8">
-        <v>1.087776862679384</v>
+        <v>1.053392295933605</v>
       </c>
       <c r="F8">
-        <v>1.097384430298241</v>
+        <v>1.065906362814689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059419696870241</v>
+        <v>1.069086867559836</v>
       </c>
       <c r="J8">
-        <v>1.090621485142614</v>
+        <v>1.064962928326243</v>
       </c>
       <c r="K8">
-        <v>1.088187400524059</v>
+        <v>1.070633544215872</v>
       </c>
       <c r="L8">
-        <v>1.090371126791931</v>
+        <v>1.063894527669629</v>
       </c>
       <c r="M8">
-        <v>1.099954760770666</v>
+        <v>1.076261892042247</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.081906259846066</v>
+        <v>1.022725948409857</v>
       </c>
       <c r="D9">
-        <v>1.082408441323232</v>
+        <v>1.042715535293563</v>
       </c>
       <c r="E9">
-        <v>1.08426659148753</v>
+        <v>1.034364370241031</v>
       </c>
       <c r="F9">
-        <v>1.093876584021221</v>
+        <v>1.046946036594911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058214604362876</v>
+        <v>1.060798878358907</v>
       </c>
       <c r="J9">
-        <v>1.087432105509631</v>
+        <v>1.047500951660946</v>
       </c>
       <c r="K9">
-        <v>1.085426707197246</v>
+        <v>1.055151615692881</v>
       </c>
       <c r="L9">
-        <v>1.087279359456254</v>
+        <v>1.046923470867129</v>
       </c>
       <c r="M9">
-        <v>1.096861242041419</v>
+        <v>1.059320746920039</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.079243043975717</v>
+        <v>1.006807984121514</v>
       </c>
       <c r="D10">
-        <v>1.080276619470768</v>
+        <v>1.029992395683808</v>
       </c>
       <c r="E10">
-        <v>1.081912826054108</v>
+        <v>1.020519793778486</v>
       </c>
       <c r="F10">
-        <v>1.091525880624595</v>
+        <v>1.033167401724904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057397499911419</v>
+        <v>1.054682951775284</v>
       </c>
       <c r="J10">
-        <v>1.085290630642364</v>
+        <v>1.034754071280402</v>
       </c>
       <c r="K10">
-        <v>1.083571140111883</v>
+        <v>1.043840450861544</v>
       </c>
       <c r="L10">
-        <v>1.085202023534982</v>
+        <v>1.034528183905383</v>
       </c>
       <c r="M10">
-        <v>1.094784156202508</v>
+        <v>1.046962563247353</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.078086468508088</v>
+        <v>0.9995264484429037</v>
       </c>
       <c r="D11">
-        <v>1.079350450965541</v>
+        <v>1.024180948121701</v>
       </c>
       <c r="E11">
-        <v>1.080890243180368</v>
+        <v>1.01419349422139</v>
       </c>
       <c r="F11">
-        <v>1.090504973939937</v>
+        <v>1.026875692456617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057040370504787</v>
+        <v>1.051868290919749</v>
       </c>
       <c r="J11">
-        <v>1.08435959254955</v>
+        <v>1.028918940992015</v>
       </c>
       <c r="K11">
-        <v>1.082763951871856</v>
+        <v>1.038660814025784</v>
       </c>
       <c r="L11">
-        <v>1.084298537337753</v>
+        <v>1.028852615670671</v>
       </c>
       <c r="M11">
-        <v>1.093881121233626</v>
+        <v>1.041307967196373</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.077656340680966</v>
+        <v>0.9967563406260106</v>
       </c>
       <c r="D12">
-        <v>1.079005957199657</v>
+        <v>1.02197168007197</v>
       </c>
       <c r="E12">
-        <v>1.080509888140073</v>
+        <v>1.011788028451946</v>
       </c>
       <c r="F12">
-        <v>1.090125294777881</v>
+        <v>1.024484094847053</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056907212825952</v>
+        <v>1.050795100097815</v>
       </c>
       <c r="J12">
-        <v>1.084013185225237</v>
+        <v>1.026698615187778</v>
       </c>
       <c r="K12">
-        <v>1.082463557190281</v>
+        <v>1.036689705677002</v>
       </c>
       <c r="L12">
-        <v>1.083962330947784</v>
+        <v>1.026692820262588</v>
       </c>
       <c r="M12">
-        <v>1.093545134544137</v>
+        <v>1.039156785284768</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.077748628533043</v>
+        <v>0.9973536238719914</v>
       </c>
       <c r="D13">
-        <v>1.079079873896297</v>
+        <v>1.022447960626583</v>
       </c>
       <c r="E13">
-        <v>1.08059149943573</v>
+        <v>1.01230662857057</v>
       </c>
       <c r="F13">
-        <v>1.090206758674655</v>
+        <v>1.024999672017528</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056935798491562</v>
+        <v>1.051026604947954</v>
       </c>
       <c r="J13">
-        <v>1.08408751714652</v>
+        <v>1.027177374467567</v>
       </c>
       <c r="K13">
-        <v>1.082528018793968</v>
+        <v>1.037114735511192</v>
       </c>
       <c r="L13">
-        <v>1.084034476228866</v>
+        <v>1.027158535525559</v>
       </c>
       <c r="M13">
-        <v>1.093617230332157</v>
+        <v>1.03962061410491</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.078050924791968</v>
+        <v>0.9992988497032822</v>
       </c>
       <c r="D14">
-        <v>1.079321984730382</v>
+        <v>1.023999395704785</v>
       </c>
       <c r="E14">
-        <v>1.080858813645339</v>
+        <v>1.013995828795316</v>
       </c>
       <c r="F14">
-        <v>1.090473599182888</v>
+        <v>1.026679151848971</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057029373961024</v>
+        <v>1.051780162926105</v>
       </c>
       <c r="J14">
-        <v>1.084330970283131</v>
+        <v>1.028736522258496</v>
       </c>
       <c r="K14">
-        <v>1.082739132824818</v>
+        <v>1.038498874425063</v>
       </c>
       <c r="L14">
-        <v>1.08427075895776</v>
+        <v>1.028675173609327</v>
       </c>
       <c r="M14">
-        <v>1.093853359948128</v>
+        <v>1.041131219776448</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0782371095635</v>
+        <v>1.000488469386609</v>
       </c>
       <c r="D15">
-        <v>1.079471094111213</v>
+        <v>1.024948404774603</v>
       </c>
       <c r="E15">
-        <v>1.081023445149018</v>
+        <v>1.01502904396978</v>
       </c>
       <c r="F15">
-        <v>1.090637945901019</v>
+        <v>1.027706516817184</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057086961958141</v>
+        <v>1.052240695938075</v>
       </c>
       <c r="J15">
-        <v>1.084480892782466</v>
+        <v>1.029689975593714</v>
       </c>
       <c r="K15">
-        <v>1.08286913141919</v>
+        <v>1.039345280939636</v>
       </c>
       <c r="L15">
-        <v>1.084416259153383</v>
+        <v>1.029602607894832</v>
       </c>
       <c r="M15">
-        <v>1.093998772725929</v>
+        <v>1.042055049256272</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.079319729427141</v>
+        <v>1.007282470915839</v>
       </c>
       <c r="D16">
-        <v>1.080338020448661</v>
+        <v>1.03037128741254</v>
       </c>
       <c r="E16">
-        <v>1.081980619013867</v>
+        <v>1.020932192138189</v>
       </c>
       <c r="F16">
-        <v>1.091593569776106</v>
+        <v>1.033577640816488</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057421131047643</v>
+        <v>1.054866024934144</v>
       </c>
       <c r="J16">
-        <v>1.085352340168404</v>
+        <v>1.035134232295838</v>
       </c>
       <c r="K16">
-        <v>1.083624631335349</v>
+        <v>1.044177875044852</v>
       </c>
       <c r="L16">
-        <v>1.085261899890331</v>
+        <v>1.034897922716989</v>
       </c>
       <c r="M16">
-        <v>1.094844009885398</v>
+        <v>1.047331020612168</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.079997910940931</v>
+        <v>1.011435457793071</v>
       </c>
       <c r="D17">
-        <v>1.080880988954003</v>
+        <v>1.033688568510418</v>
       </c>
       <c r="E17">
-        <v>1.082580112711142</v>
+        <v>1.024542528404453</v>
       </c>
       <c r="F17">
-        <v>1.09219218544192</v>
+        <v>1.03716957908717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057629854389641</v>
+        <v>1.056466498301755</v>
       </c>
       <c r="J17">
-        <v>1.08589795913022</v>
+        <v>1.038461171784685</v>
       </c>
       <c r="K17">
-        <v>1.084097534134986</v>
+        <v>1.047130619199494</v>
       </c>
       <c r="L17">
-        <v>1.085791272000037</v>
+        <v>1.038133500223234</v>
       </c>
       <c r="M17">
-        <v>1.095373221059258</v>
+        <v>1.050555834490973</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.080393157160328</v>
+        <v>1.013820825271074</v>
       </c>
       <c r="D18">
-        <v>1.081197397330002</v>
+        <v>1.035594715380947</v>
       </c>
       <c r="E18">
-        <v>1.082929461365663</v>
+        <v>1.026616828593878</v>
       </c>
       <c r="F18">
-        <v>1.092541055712002</v>
+        <v>1.039233721953534</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057751279437117</v>
+        <v>1.057384173591325</v>
       </c>
       <c r="J18">
-        <v>1.086215846997694</v>
+        <v>1.040371677983771</v>
       </c>
       <c r="K18">
-        <v>1.084373012587569</v>
+        <v>1.048826076852453</v>
       </c>
       <c r="L18">
-        <v>1.086099662053731</v>
+        <v>1.03999141039263</v>
       </c>
       <c r="M18">
-        <v>1.095681550292049</v>
+        <v>1.052407933239545</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.080527871151404</v>
+        <v>1.014628091781602</v>
       </c>
       <c r="D19">
-        <v>1.08130523455359</v>
+        <v>1.03623992795462</v>
       </c>
       <c r="E19">
-        <v>1.083048525357452</v>
+        <v>1.027318921008416</v>
       </c>
       <c r="F19">
-        <v>1.092659962293468</v>
+        <v>1.039932445219234</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057792628169923</v>
+        <v>1.057694462952841</v>
       </c>
       <c r="J19">
-        <v>1.086324177448964</v>
+        <v>1.041018167623899</v>
       </c>
       <c r="K19">
-        <v>1.084466883266056</v>
+        <v>1.049399767332794</v>
       </c>
       <c r="L19">
-        <v>1.086204750380478</v>
+        <v>1.040620079378058</v>
       </c>
       <c r="M19">
-        <v>1.095786623469056</v>
+        <v>1.053034697473664</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.079925182271966</v>
+        <v>1.010993755413766</v>
       </c>
       <c r="D20">
-        <v>1.080822764268153</v>
+        <v>1.033335666216271</v>
       </c>
       <c r="E20">
-        <v>1.082515826514642</v>
+        <v>1.024158475459581</v>
       </c>
       <c r="F20">
-        <v>1.092127989953696</v>
+        <v>1.036787439958168</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0576074934627</v>
+        <v>1.05629644056957</v>
       </c>
       <c r="J20">
-        <v>1.085839456959564</v>
+        <v>1.038107366679485</v>
       </c>
       <c r="K20">
-        <v>1.084046833222033</v>
+        <v>1.046816624954394</v>
       </c>
       <c r="L20">
-        <v>1.08573451516535</v>
+        <v>1.037789424545016</v>
       </c>
       <c r="M20">
-        <v>1.095316478068796</v>
+        <v>1.050212864785455</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.077961920674695</v>
+        <v>0.9987278972243842</v>
       </c>
       <c r="D21">
-        <v>1.079250702289126</v>
+        <v>1.023543980995538</v>
       </c>
       <c r="E21">
-        <v>1.080780110797525</v>
+        <v>1.013499987573209</v>
       </c>
       <c r="F21">
-        <v>1.090395034352761</v>
+        <v>1.026186143881772</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057001832272235</v>
+        <v>1.051559047484941</v>
       </c>
       <c r="J21">
-        <v>1.084259295468838</v>
+        <v>1.028278900982913</v>
       </c>
       <c r="K21">
-        <v>1.082676980800104</v>
+        <v>1.038092624656511</v>
       </c>
       <c r="L21">
-        <v>1.084201196561876</v>
+        <v>1.028230034092834</v>
       </c>
       <c r="M21">
-        <v>1.093783841197532</v>
+        <v>1.040687833152469</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.076724499485266</v>
+        <v>0.9906329657231063</v>
       </c>
       <c r="D22">
-        <v>1.078259538968714</v>
+        <v>1.017091310617999</v>
       </c>
       <c r="E22">
-        <v>1.079685769243856</v>
+        <v>1.00647327989442</v>
       </c>
       <c r="F22">
-        <v>1.089302736697671</v>
+        <v>1.019201366861806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056618110794992</v>
+        <v>1.048418505194178</v>
       </c>
       <c r="J22">
-        <v>1.083262432884125</v>
+        <v>1.021789864790664</v>
       </c>
       <c r="K22">
-        <v>1.081812402541452</v>
+        <v>1.032331622373999</v>
       </c>
       <c r="L22">
-        <v>1.083233594694755</v>
+        <v>1.021917581401586</v>
       </c>
       <c r="M22">
-        <v>1.092816969647702</v>
+        <v>1.03440180235739</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.077380773335791</v>
+        <v>0.9949631978414972</v>
       </c>
       <c r="D23">
-        <v>1.078785237507553</v>
+        <v>1.020542061980173</v>
       </c>
       <c r="E23">
-        <v>1.08026619194792</v>
+        <v>1.010231306784882</v>
       </c>
       <c r="F23">
-        <v>1.089882046436311</v>
+        <v>1.022936556201244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056821807263201</v>
+        <v>1.05009974266702</v>
       </c>
       <c r="J23">
-        <v>1.083791210611446</v>
+        <v>1.025261244976038</v>
       </c>
       <c r="K23">
-        <v>1.082271048059054</v>
+        <v>1.035413621170292</v>
       </c>
       <c r="L23">
-        <v>1.083746878860736</v>
+        <v>1.025294586908774</v>
       </c>
       <c r="M23">
-        <v>1.093329837871186</v>
+        <v>1.037764311286989</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.079958046232838</v>
+        <v>1.011193455531643</v>
       </c>
       <c r="D24">
-        <v>1.080849074411967</v>
+        <v>1.033495216086432</v>
       </c>
       <c r="E24">
-        <v>1.082544875686569</v>
+        <v>1.024332109520003</v>
       </c>
       <c r="F24">
-        <v>1.092156998034188</v>
+        <v>1.036960207482361</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057617598391061</v>
+        <v>1.056373331132783</v>
       </c>
       <c r="J24">
-        <v>1.085865892692159</v>
+        <v>1.038267328410652</v>
       </c>
       <c r="K24">
-        <v>1.084069743887604</v>
+        <v>1.046958587989902</v>
       </c>
       <c r="L24">
-        <v>1.085760162321553</v>
+        <v>1.037944987834509</v>
       </c>
       <c r="M24">
-        <v>1.095342118867299</v>
+        <v>1.050367926897294</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.082936109876331</v>
+        <v>1.028592192885475</v>
       </c>
       <c r="D25">
-        <v>1.08323247168638</v>
+        <v>1.04741012079623</v>
       </c>
       <c r="E25">
-        <v>1.085176424139053</v>
+        <v>1.039470982126706</v>
       </c>
       <c r="F25">
-        <v>1.094785537499505</v>
+        <v>1.052031815036748</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058528545480589</v>
+        <v>1.063037744892212</v>
       </c>
       <c r="J25">
-        <v>1.088259271521976</v>
+        <v>1.052194195828463</v>
       </c>
       <c r="K25">
-        <v>1.086143033851411</v>
+        <v>1.059314480730655</v>
       </c>
       <c r="L25">
-        <v>1.088081455635591</v>
+        <v>1.051485973413915</v>
       </c>
       <c r="M25">
-        <v>1.097663543357359</v>
+        <v>1.063872740228347</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
